--- a/Files/Excel/Jeep.xlsx
+++ b/Files/Excel/Jeep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Área de Trabalho\autoSINP\Files\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\Desktop\AfterLifeDeath\SINP\autoSINP\Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB818B4-9F82-47CC-80C9-3031E7EED3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F870A092-FA5B-470D-A196-91F0DCA6264D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,66 +20,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>serie</t>
   </si>
   <si>
-    <t>Jeep Avenger</t>
-  </si>
-  <si>
-    <t>Jeep Cherokee (KL)</t>
-  </si>
-  <si>
-    <t>Jeep Cherokee (XJ)</t>
-  </si>
-  <si>
-    <t>Jeep Comanche</t>
-  </si>
-  <si>
-    <t>Jeep Commander (XK)</t>
-  </si>
-  <si>
-    <t>Jeep Commander (2021)</t>
-  </si>
-  <si>
-    <t>Jeep Compass</t>
-  </si>
-  <si>
-    <t>Jeep Grand Cherokee</t>
-  </si>
-  <si>
-    <t>Willys Jeep Station Wagon</t>
-  </si>
-  <si>
-    <t>Willys Jeep Truck</t>
-  </si>
-  <si>
-    <t>Willys-Overland Jeepster</t>
-  </si>
-  <si>
-    <t>Jeepster Commando</t>
-  </si>
-  <si>
-    <t>Jeep Liberty</t>
-  </si>
-  <si>
-    <t>Jeep Patriot</t>
-  </si>
-  <si>
-    <t>Jeep Renegade</t>
-  </si>
-  <si>
-    <t>Jeep Trailhawk</t>
-  </si>
-  <si>
-    <t>Jeep Wagoneer</t>
-  </si>
-  <si>
-    <t>Jeep Wrangler</t>
-  </si>
-  <si>
     <t>marca</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>Avenger</t>
+  </si>
+  <si>
+    <t>Comanche</t>
+  </si>
+  <si>
+    <t>Compass</t>
+  </si>
+  <si>
+    <t>Commando</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Patriot</t>
+  </si>
+  <si>
+    <t>Renegade</t>
+  </si>
+  <si>
+    <t>Trailhawk</t>
+  </si>
+  <si>
+    <t>Wagoneer</t>
+  </si>
+  <si>
+    <t>Wrangler</t>
+  </si>
+  <si>
+    <t>Cherokee (KL)</t>
+  </si>
+  <si>
+    <t>Commander (XK)</t>
+  </si>
+  <si>
+    <t>Grand Cherokee</t>
+  </si>
+  <si>
+    <t>Jeep Truck</t>
+  </si>
+  <si>
+    <t>Overland Jeepster</t>
+  </si>
+  <si>
+    <t>Cherokee (XL)</t>
+  </si>
+  <si>
+    <t>Station Wagon</t>
+  </si>
+  <si>
+    <t>Commander</t>
+  </si>
+  <si>
+    <t>Jeep</t>
   </si>
 </sst>
 </file>
@@ -442,167 +448,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
         <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
